--- a/data/trans_bre/P50_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 8,34</t>
+          <t>-11,96; 11,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 7,45</t>
+          <t>-16,23; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 12,53</t>
+          <t>-4,4; 14,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 9,12</t>
+          <t>-17,72; 10,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 32,46</t>
+          <t>-2,06; 19,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 36,05</t>
+          <t>-30,1; 46,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 69,02</t>
+          <t>-45,35; 37,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 45,6</t>
+          <t>-16,09; 93,54</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-43,73; 52,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 125,61</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>34,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30,82%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 16,61</t>
+          <t>-9,22; 12,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 14,0</t>
+          <t>-8,85; 12,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 15,68</t>
+          <t>-3,23; 16,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 8,96</t>
+          <t>-11,34; 9,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 67,89</t>
+          <t>-3,27; 23,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 68,25</t>
+          <t>-26,89; 53,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 76,05</t>
+          <t>-28,5; 66,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 37,98</t>
+          <t>-13,1; 110,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; 46,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 99,9</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-15,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,47</t>
+          <t>22,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>-12,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>-29,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>148,04%</t>
+          <t>45,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>171,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-30,67%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 19,13</t>
+          <t>-46,61; 15,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 21,43</t>
+          <t>-15,57; 25,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 40,41</t>
+          <t>0,79; 43,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 25,58</t>
+          <t>-49,02; 16,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,42; 78,13</t>
+          <t>-17,53; 35,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 204,01</t>
+          <t>-65,59; 49,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,69; 407,59</t>
+          <t>-67,88; 614,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 135,16</t>
+          <t>-12,74; 1067,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-78,4; 84,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-40,53; 263,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>39,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,74</t>
+          <t>-9,06; 7,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,15</t>
+          <t>-9,46; 7,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,27</t>
+          <t>1,9; 14,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,0</t>
+          <t>-12,11; 6,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 30,61</t>
+          <t>0,29; 16,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 37,13</t>
+          <t>-24,55; 25,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,69; 73,29</t>
+          <t>-30,64; 34,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 30,4</t>
+          <t>7,72; 84,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 25,64</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 74,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P50_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-7,75%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,54%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,31%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>35,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.8109064003852584</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.605101779970713</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.327362424241012</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.23595713998681</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.282117944394087</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02577724056145621</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.06023435112821959</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3021577892823181</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.04396910821359313</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3156029612868692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,96; 11,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 7,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 14,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,72; 10,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 19,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-30,1; 46,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-45,35; 37,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 93,54</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-43,73; 52,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 125,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.9572804923263</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.59906898538974</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.222781162392908</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.37830973083233</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.230158749995871</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3009902671673083</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4273626956406728</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1301092615847445</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4141939947926548</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.105831972421179</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.25265891050861</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.712413730727153</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.62154028933212</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.34419969824032</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>18.79865566583355</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.4644476592503334</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4162163596703676</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.012469546173648</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.54779395995822</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.21616871594737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>34,51%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-5,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>30,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 12,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 12,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 16,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; 9,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 23,78</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-26,89; 53,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-28,5; 66,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 110,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-35,35; 46,93</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-9,6; 99,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.92997784651836</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.132325766218544</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.970004435703455</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.769905672251354</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>9.205694531713531</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.06842197698512881</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.005137244742913324</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2625561182326976</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.07012246301726408</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2963226116080379</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-15,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,17%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,05%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>171,13%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-30,67%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.221855327750998</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.33460015442904</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.171915985590073</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.85454842753017</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.305890694295534</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2688545383505772</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3267737497203291</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1751450126727705</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3740650892799177</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1052945096578587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-46,61; 15,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; 25,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 43,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-49,02; 16,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; 35,79</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-65,59; 49,1</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-67,88; 614,31</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 1067,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-78,4; 84,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-40,53; 263,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.23386133343546</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.48916045441821</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.65842032489657</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.716621210184302</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>22.24679836523521</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5309385353548243</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6071947466415568</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.03138462928788</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4646366437279331</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9131248986664984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,01%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>39,6%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-5,98%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>31,68%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-15.84205189983825</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.201839450875763</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21.91603360729179</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-11.35607450213434</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>8.829556497204083</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.2916749283616888</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5746804816966586</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.573735949815701</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.283099050455061</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3421477585722432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 7,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 7,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 14,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 6,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 16,23</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-24,55; 25,75</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-30,64; 34,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 84,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 25,64</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 74,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-46.60978568528979</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.19046159744649</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8053964508742277</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-48.74197636840789</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-15.40449748471744</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6558713687044385</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6545537476622444</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2161059939672038</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7847809849496665</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3767427671952085</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.01177682127902</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.41447043857703</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>42.22966764194827</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.93334775650836</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>36.41633221799473</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4910140092529362</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.427326243179546</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>9.091963636429671</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.016076792076427</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.028876620277147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.6576665127881909</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02577552668097394</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.72557570900786</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.339413973646786</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.061901984967484</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.02013386097298013</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.00103846520504677</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3682531250320006</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.04749041115101377</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3028549253700517</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.061966209352835</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.020617946145054</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.120150046595566</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.13443092739105</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1789556262954081</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.245545308685802</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2738129946637947</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0427988055075188</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3110579264941657</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.007195006670726043</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.150229711837388</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.058950610969402</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.90569128631774</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.255253722632473</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.16070251667395</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.257548016626694</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3445275381937525</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.794244759925639</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2707087016922913</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7439540482418415</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
